--- a/src/test/resources/showcase/artifact/script/webasync-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/webasync-showcase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/showcase/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8666B9E-C724-7A47-A259-ADB09EC29069}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C920A506-2B1E-9D49-AB49-4CC5C05AA58E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9260" yWindow="-14100" windowWidth="33600" windowHeight="14100" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="-14100" windowWidth="38400" windowHeight="14100" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -1375,10 +1375,10 @@
     <t>https://github.com/nexiality/nexial-core/releases/download/nexial-core-v1.2_0070/nexial-core-dev_0070.zip</t>
   </si>
   <si>
+    <t>$(syspath|out|fullpath)/dummy.zip</t>
+  </si>
+  <si>
     <t>https://downloads.binaryage.com/TotalFinder-1.10.10.dmg</t>
-  </si>
-  <si>
-    <t>$(syspath|out|fullpath)/dummy.dmg</t>
   </si>
   <si>
     <t>qty=800</t>
@@ -3570,7 +3570,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3719,12 +3719,12 @@
       <c r="D5" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>433</v>
+      <c r="E5" s="10" t="s">
+        <v>434</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -3987,7 +3987,7 @@
       <c r="C18" s="13"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -15097,7 +15097,7 @@
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C6 C13:C701 C11 C9" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
